--- a/output/3Y_P10_KFSDIV.xlsx
+++ b/output/3Y_P10_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -3998,10 +4001,10 @@
         <v>247869.9562</v>
       </c>
       <c r="K22" s="1">
-        <v>166529.5766</v>
+        <v>166569.7277</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1048</v>
+        <v>12.1077</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -4051,10 +4054,10 @@
         <v>238476.7441</v>
       </c>
       <c r="K23" s="1">
-        <v>184906.9342</v>
+        <v>184947.0853</v>
       </c>
       <c r="L23" s="1">
-        <v>12.2691</v>
+        <v>12.2718</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -4104,10 +4107,10 @@
         <v>250924.0484</v>
       </c>
       <c r="K24" s="1">
-        <v>220559.9484</v>
+        <v>220600.0995</v>
       </c>
       <c r="L24" s="1">
-        <v>12.2726</v>
+        <v>12.2748</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -4157,10 +4160,10 @@
         <v>260658.4725</v>
       </c>
       <c r="K25" s="1">
-        <v>227999.9475</v>
+        <v>228040.0986</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2778</v>
+        <v>12.28</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -4210,10 +4213,10 @@
         <v>288725.0519</v>
       </c>
       <c r="K26" s="1">
-        <v>238276.8212</v>
+        <v>238316.9723</v>
       </c>
       <c r="L26" s="1">
-        <v>12.284</v>
+        <v>12.286</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -4263,10 +4266,10 @@
         <v>307471.2855</v>
       </c>
       <c r="K27" s="1">
-        <v>238526.7539</v>
+        <v>238566.905</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2846</v>
+        <v>12.2867</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -4316,10 +4319,10 @@
         <v>327740.6069</v>
       </c>
       <c r="K28" s="1">
-        <v>239784.5502</v>
+        <v>239824.7013</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2899</v>
+        <v>12.2919</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -4369,10 +4372,10 @@
         <v>361041.1756</v>
       </c>
       <c r="K29" s="1">
-        <v>239509.0982</v>
+        <v>239550.3505</v>
       </c>
       <c r="L29" s="1">
-        <v>12.2882</v>
+        <v>12.2904</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -4422,10 +4425,10 @@
         <v>385145.1379</v>
       </c>
       <c r="K30" s="1">
-        <v>234970.2415</v>
+        <v>235029.6107</v>
       </c>
       <c r="L30" s="1">
-        <v>12.25</v>
+        <v>12.2531</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -4475,10 +4478,10 @@
         <v>366973.3635</v>
       </c>
       <c r="K31" s="1">
-        <v>230849.8183</v>
+        <v>230925.6484</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2055</v>
+        <v>12.2095</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -4528,10 +4531,10 @@
         <v>390827.1976</v>
       </c>
       <c r="K32" s="1">
-        <v>269174.6283</v>
+        <v>269250.4584</v>
       </c>
       <c r="L32" s="1">
-        <v>12.421</v>
+        <v>12.4245</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -4581,10 +4584,10 @@
         <v>402304.4985</v>
       </c>
       <c r="K33" s="1">
-        <v>273696.9214</v>
+        <v>273772.7515</v>
       </c>
       <c r="L33" s="1">
-        <v>12.4461</v>
+        <v>12.4496</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -4634,10 +4637,10 @@
         <v>410562.5243</v>
       </c>
       <c r="K34" s="1">
-        <v>282235.6704</v>
+        <v>282311.5005</v>
       </c>
       <c r="L34" s="1">
-        <v>12.4933</v>
+        <v>12.4967</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -4687,10 +4690,10 @@
         <v>459045.3528</v>
       </c>
       <c r="K35" s="1">
-        <v>293990.4917</v>
+        <v>294066.3218</v>
       </c>
       <c r="L35" s="1">
-        <v>12.552</v>
+        <v>12.5552</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -4740,10 +4743,10 @@
         <v>469769.7783</v>
       </c>
       <c r="K36" s="1">
-        <v>275552.9217</v>
+        <v>275702.4454</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4002</v>
+        <v>12.4069</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -4793,10 +4796,10 @@
         <v>463352.2183</v>
       </c>
       <c r="K37" s="1">
-        <v>284865.7001</v>
+        <v>285015.2238</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4796</v>
+        <v>12.4861</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -4846,10 +4849,10 @@
         <v>514471.0238</v>
       </c>
       <c r="K38" s="1">
-        <v>311351.8274</v>
+        <v>311501.3512</v>
       </c>
       <c r="L38" s="1">
-        <v>12.6404</v>
+        <v>12.6464</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -6038,10 +6041,10 @@
         <v>249087.53</v>
       </c>
       <c r="K22" s="1">
-        <v>175333.3243</v>
+        <v>175373.2051</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1499</v>
+        <v>12.1527</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -6091,10 +6094,10 @@
         <v>238674.709</v>
       </c>
       <c r="K23" s="1">
-        <v>195172.0019</v>
+        <v>195211.8827</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3145</v>
+        <v>12.3171</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -6144,10 +6147,10 @@
         <v>251252.9053</v>
       </c>
       <c r="K24" s="1">
-        <v>233255.7727</v>
+        <v>233295.6535</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3106</v>
+        <v>12.3127</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -6197,10 +6200,10 @@
         <v>260969.8032</v>
       </c>
       <c r="K25" s="1">
-        <v>241718.98</v>
+        <v>241758.8608</v>
       </c>
       <c r="L25" s="1">
-        <v>12.3149</v>
+        <v>12.317</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -6250,10 +6253,10 @@
         <v>290089.3578</v>
       </c>
       <c r="K26" s="1">
-        <v>253229.7373</v>
+        <v>253269.6181</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3198</v>
+        <v>12.3217</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -6303,10 +6306,10 @@
         <v>309378.3392</v>
       </c>
       <c r="K27" s="1">
-        <v>254172.2421</v>
+        <v>254212.1229</v>
       </c>
       <c r="L27" s="1">
-        <v>12.3219</v>
+        <v>12.3239</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -6356,10 +6359,10 @@
         <v>330313.1072</v>
       </c>
       <c r="K28" s="1">
-        <v>256215.6178</v>
+        <v>256255.4986</v>
       </c>
       <c r="L28" s="1">
-        <v>12.3297</v>
+        <v>12.3316</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -6409,10 +6412,10 @@
         <v>365167.6198</v>
       </c>
       <c r="K29" s="1">
-        <v>256659.0473</v>
+        <v>256698.9281</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3321</v>
+        <v>12.334</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -6462,10 +6465,10 @@
         <v>390266.1744</v>
       </c>
       <c r="K30" s="1">
-        <v>252579.1585</v>
+        <v>252635.3242</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3006</v>
+        <v>12.3033</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -6515,10 +6518,10 @@
         <v>370030.677</v>
       </c>
       <c r="K31" s="1">
-        <v>248964.8912</v>
+        <v>249035.4958</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2648</v>
+        <v>12.2683</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -6568,10 +6571,10 @@
         <v>394911.1604</v>
       </c>
       <c r="K32" s="1">
-        <v>290924.1568</v>
+        <v>290994.7613</v>
       </c>
       <c r="L32" s="1">
-        <v>12.4764</v>
+        <v>12.4794</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -6621,10 +6624,10 @@
         <v>406501.4336</v>
       </c>
       <c r="K33" s="1">
-        <v>296647.5646</v>
+        <v>296718.1692</v>
       </c>
       <c r="L33" s="1">
-        <v>12.505</v>
+        <v>12.508</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -6674,10 +6677,10 @@
         <v>414614.002</v>
       </c>
       <c r="K34" s="1">
-        <v>306746.8499</v>
+        <v>306817.4545</v>
       </c>
       <c r="L34" s="1">
-        <v>12.5549</v>
+        <v>12.5578</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -6727,10 +6730,10 @@
         <v>466308.9265</v>
       </c>
       <c r="K35" s="1">
-        <v>320378.8248</v>
+        <v>320449.4294</v>
       </c>
       <c r="L35" s="1">
-        <v>12.6152</v>
+        <v>12.618</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -6780,10 +6783,10 @@
         <v>477096.4319</v>
       </c>
       <c r="K36" s="1">
-        <v>301337.0488</v>
+        <v>301483.7619</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4743</v>
+        <v>12.4804</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -6833,10 +6836,10 @@
         <v>469199.6436</v>
       </c>
       <c r="K37" s="1">
-        <v>312441.9354</v>
+        <v>312588.6486</v>
       </c>
       <c r="L37" s="1">
-        <v>12.559</v>
+        <v>12.5649</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -6886,10 +6889,10 @@
         <v>524067.6075</v>
       </c>
       <c r="K38" s="1">
-        <v>342320.9499</v>
+        <v>342467.6631</v>
       </c>
       <c r="L38" s="1">
-        <v>12.719</v>
+        <v>12.7244</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -8078,10 +8081,10 @@
         <v>250354.8983</v>
       </c>
       <c r="K22" s="1">
-        <v>184694.8752</v>
+        <v>184734.3296</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1942</v>
+        <v>12.1968</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -8131,10 +8134,10 @@
         <v>238854.3026</v>
       </c>
       <c r="K23" s="1">
-        <v>206124.6128</v>
+        <v>206164.0672</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3591</v>
+        <v>12.3615</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -8184,10 +8187,10 @@
         <v>251572.3187</v>
       </c>
       <c r="K24" s="1">
-        <v>246841.9277</v>
+        <v>246881.3821</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3478</v>
+        <v>12.3497</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -8237,10 +8240,10 @@
         <v>261270.2377</v>
       </c>
       <c r="K25" s="1">
-        <v>256446.7943</v>
+        <v>256486.2487</v>
       </c>
       <c r="L25" s="1">
-        <v>12.351</v>
+        <v>12.3529</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -8290,10 +8293,10 @@
         <v>291521.4074</v>
       </c>
       <c r="K26" s="1">
-        <v>269333.5717</v>
+        <v>269373.0261</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3544</v>
+        <v>12.3562</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -8343,10 +8346,10 @@
         <v>311396.4219</v>
       </c>
       <c r="K27" s="1">
-        <v>271078.7285</v>
+        <v>271118.1829</v>
       </c>
       <c r="L27" s="1">
-        <v>12.3579</v>
+        <v>12.3597</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -8396,10 +8399,10 @@
         <v>333052.1747</v>
       </c>
       <c r="K28" s="1">
-        <v>274032.867</v>
+        <v>274072.3214</v>
       </c>
       <c r="L28" s="1">
-        <v>12.3681</v>
+        <v>12.3699</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -8449,10 +8452,10 @@
         <v>369593.0345</v>
       </c>
       <c r="K29" s="1">
-        <v>275323.0224</v>
+        <v>275362.4768</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3745</v>
+        <v>12.3763</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -8502,10 +8505,10 @@
         <v>395776.8762</v>
       </c>
       <c r="K30" s="1">
-        <v>271815.4777</v>
+        <v>271868.9326</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3497</v>
+        <v>12.3521</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -8555,10 +8558,10 @@
         <v>373281.815</v>
       </c>
       <c r="K31" s="1">
-        <v>268832.6293</v>
+        <v>268898.0005</v>
       </c>
       <c r="L31" s="1">
-        <v>12.3227</v>
+        <v>12.3257</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -8608,10 +8611,10 @@
         <v>399287.5886</v>
       </c>
       <c r="K32" s="1">
-        <v>314856.5083</v>
+        <v>314921.8794</v>
       </c>
       <c r="L32" s="1">
-        <v>12.5304</v>
+        <v>12.533</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -8661,10 +8664,10 @@
         <v>411002.0501</v>
       </c>
       <c r="K33" s="1">
-        <v>321991.1651</v>
+        <v>322056.5362</v>
       </c>
       <c r="L33" s="1">
-        <v>12.5623</v>
+        <v>12.5649</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -8714,10 +8717,10 @@
         <v>418953.3562</v>
       </c>
       <c r="K34" s="1">
-        <v>333909.095</v>
+        <v>333974.4662</v>
       </c>
       <c r="L34" s="1">
-        <v>12.6149</v>
+        <v>12.6173</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -8767,10 +8770,10 @@
         <v>474209.8328</v>
       </c>
       <c r="K35" s="1">
-        <v>349722.7583</v>
+        <v>349788.1295</v>
       </c>
       <c r="L35" s="1">
-        <v>12.6769</v>
+        <v>12.6793</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -8820,10 +8823,10 @@
         <v>485067.5888</v>
       </c>
       <c r="K36" s="1">
-        <v>330122.9641</v>
+        <v>330266.6742</v>
       </c>
       <c r="L36" s="1">
-        <v>12.5467</v>
+        <v>12.5522</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -8873,10 +8876,10 @@
         <v>475517.3396</v>
       </c>
       <c r="K37" s="1">
-        <v>343343.7943</v>
+        <v>343487.5044</v>
       </c>
       <c r="L37" s="1">
-        <v>12.6367</v>
+        <v>12.642</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -8926,10 +8929,10 @@
         <v>534581.7226</v>
       </c>
       <c r="K38" s="1">
-        <v>377142.2273</v>
+        <v>377285.9374</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7959</v>
+        <v>12.8008</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -10118,10 +10121,10 @@
         <v>251513.7207</v>
       </c>
       <c r="K22" s="1">
-        <v>194812.0369</v>
+        <v>194850.8894</v>
       </c>
       <c r="L22" s="1">
-        <v>12.2477</v>
+        <v>12.2501</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -10171,10 +10174,10 @@
         <v>238852.3364</v>
       </c>
       <c r="K23" s="1">
-        <v>217973.9977</v>
+        <v>218012.8502</v>
       </c>
       <c r="L23" s="1">
-        <v>12.412</v>
+        <v>12.4142</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -10224,10 +10227,10 @@
         <v>251644.7923</v>
       </c>
       <c r="K24" s="1">
-        <v>251847.6492</v>
+        <v>251886.5017</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3955</v>
+        <v>12.3974</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -10277,10 +10280,10 @@
         <v>261336.5775</v>
       </c>
       <c r="K25" s="1">
-        <v>261847.6492</v>
+        <v>261886.5017</v>
       </c>
       <c r="L25" s="1">
-        <v>12.397</v>
+        <v>12.3988</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -10330,10 +10333,10 @@
         <v>291824.12</v>
       </c>
       <c r="K26" s="1">
-        <v>271847.6492</v>
+        <v>271886.5017</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3979</v>
+        <v>12.3997</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -10383,10 +10386,10 @@
         <v>312269.3256</v>
       </c>
       <c r="K27" s="1">
-        <v>290232.1287</v>
+        <v>290270.9812</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4302</v>
+        <v>12.4318</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -10436,10 +10439,10 @@
         <v>334706.5954</v>
       </c>
       <c r="K28" s="1">
-        <v>294238.8728</v>
+        <v>294277.7253</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4422</v>
+        <v>12.4438</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -10489,10 +10492,10 @@
         <v>373079.6931</v>
       </c>
       <c r="K29" s="1">
-        <v>296521.8031</v>
+        <v>296560.6557</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4523</v>
+        <v>12.4539</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -10542,10 +10545,10 @@
         <v>400448.46</v>
       </c>
       <c r="K30" s="1">
-        <v>293718.2078</v>
+        <v>293768.251</v>
       </c>
       <c r="L30" s="1">
-        <v>12.4344</v>
+        <v>12.4366</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -10595,10 +10598,10 @@
         <v>375477.8642</v>
       </c>
       <c r="K31" s="1">
-        <v>291512.8524</v>
+        <v>291571.7058</v>
       </c>
       <c r="L31" s="1">
-        <v>12.4164</v>
+        <v>12.4189</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -10648,10 +10651,10 @@
         <v>402717.8431</v>
       </c>
       <c r="K32" s="1">
-        <v>342085.1949</v>
+        <v>342144.0483</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6153</v>
+        <v>12.6175</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -10701,10 +10704,10 @@
         <v>414568.9175</v>
       </c>
       <c r="K33" s="1">
-        <v>350874.2969</v>
+        <v>350933.1504</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6497</v>
+        <v>12.6519</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -10754,10 +10757,10 @@
         <v>422341.2889</v>
       </c>
       <c r="K34" s="1">
-        <v>364909.4557</v>
+        <v>364968.3091</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7038</v>
+        <v>12.7058</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -10807,10 +10810,10 @@
         <v>481550.1804</v>
       </c>
       <c r="K35" s="1">
-        <v>383257.5569</v>
+        <v>383316.4103</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7661</v>
+        <v>12.768</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -10860,10 +10863,10 @@
         <v>492486.2467</v>
       </c>
       <c r="K36" s="1">
-        <v>363165.9041</v>
+        <v>363305.0624</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6478</v>
+        <v>12.6527</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -10913,10 +10916,10 @@
         <v>481085.8986</v>
       </c>
       <c r="K37" s="1">
-        <v>378882.5887</v>
+        <v>379021.747</v>
       </c>
       <c r="L37" s="1">
-        <v>12.7421</v>
+        <v>12.7468</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -10966,10 +10969,10 @@
         <v>544852.2606</v>
       </c>
       <c r="K38" s="1">
-        <v>417212.0299</v>
+        <v>417351.1882</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8981</v>
+        <v>12.9024</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>13.2374</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6404</v>
+        <v>12.6464</v>
       </c>
       <c r="E3" s="1">
-        <v>12.719</v>
+        <v>12.7244</v>
       </c>
       <c r="F3" s="1">
-        <v>12.7959</v>
+        <v>12.8008</v>
       </c>
       <c r="G3" s="1">
-        <v>12.8981</v>
+        <v>12.9024</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>102285.4828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2328</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6516</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5303</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4169</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3055</v>
       </c>
     </row>
   </sheetData>
